--- a/HumanEvaluations.xlsx
+++ b/HumanEvaluations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8abab0f502b5e2e3/Documents/School/CS 6263 NLP/Assignment1c/CS6263Assignment1C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{D8E49D68-19C2-4517-88D4-C56E6F1D44DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{164A9C43-18E4-404C-8D83-FE1508B930C6}"/>
+  <xr:revisionPtr revIDLastSave="1216" documentId="8_{D8E49D68-19C2-4517-88D4-C56E6F1D44DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77343648-F1FF-4B02-8E98-2DAEB46BEB06}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{27FF03AC-92E1-482E-8ED0-A256D47E19D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{27FF03AC-92E1-482E-8ED0-A256D47E19D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -117,6 +118,150 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Llama topk=2 C</t>
+  </si>
+  <si>
+    <t>Llama top k =2 F</t>
+  </si>
+  <si>
+    <t>Llama topk=4 C</t>
+  </si>
+  <si>
+    <t>Llama top k =4 F</t>
+  </si>
+  <si>
+    <t>Llama topk=6 C</t>
+  </si>
+  <si>
+    <t>Llama top k =6 F</t>
+  </si>
+  <si>
+    <t>Llama topk=8 C</t>
+  </si>
+  <si>
+    <t>Llama top k =8 F</t>
+  </si>
+  <si>
+    <t>Llama beamsize = 2 C</t>
+  </si>
+  <si>
+    <t>Llama beamsize =2 F</t>
+  </si>
+  <si>
+    <t>Llama beamsize = 3 C</t>
+  </si>
+  <si>
+    <t>Llama beamsize =3 F</t>
+  </si>
+  <si>
+    <t>Llama beamsize = 4 C</t>
+  </si>
+  <si>
+    <t>Llama beamsize = 4 F</t>
+  </si>
+  <si>
+    <t>Llama beamsize = 5 C</t>
+  </si>
+  <si>
+    <t>Llama beamsize = 5 F</t>
+  </si>
+  <si>
+    <t>Llama temp = .1 C</t>
+  </si>
+  <si>
+    <t>Llamatemp = .1 F</t>
+  </si>
+  <si>
+    <t>Llama temp = .25 C</t>
+  </si>
+  <si>
+    <t>Llamatemp = .25 F</t>
+  </si>
+  <si>
+    <t>Llama temp = .5 C</t>
+  </si>
+  <si>
+    <t>Llamatemp = .5 F</t>
+  </si>
+  <si>
+    <t>Llama temp = .75 C</t>
+  </si>
+  <si>
+    <t>Llamatemp = .75 F</t>
+  </si>
+  <si>
+    <t>phi-2 topk=2 C</t>
+  </si>
+  <si>
+    <t>phi-2 top k =2 F</t>
+  </si>
+  <si>
+    <t>phi-2 topk=4 C</t>
+  </si>
+  <si>
+    <t>phi-2 top k =4 F</t>
+  </si>
+  <si>
+    <t>phi-2 topk=6 C</t>
+  </si>
+  <si>
+    <t>phi-2 top k =6 F</t>
+  </si>
+  <si>
+    <t>phi-2 topk=8 C</t>
+  </si>
+  <si>
+    <t>phi-2 top k =8 F</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize = 2 C</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize =2 F</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize = 3 C</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize =3 F</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize = 4 C</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize = 4 F</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize = 5 C</t>
+  </si>
+  <si>
+    <t>phi-2 beamsize = 5 F</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .1 C</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .1 F</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .25 C</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .25 F</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .5 C</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .5 F</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .75 C</t>
+  </si>
+  <si>
+    <t>phi-2 temp = .75 F</t>
   </si>
 </sst>
 </file>
@@ -175,6 +320,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F38D744-E028-4828-9B77-75BB0AC1E946}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1012,4 +1161,3846 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7318D3-2168-40B3-AD12-56B5F3B6071D}">
+  <dimension ref="A1:I142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.75</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3">
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.75</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>0.75</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.75</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.75</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.75</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>0.75</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>0.75</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <v>0.75</v>
+      </c>
+      <c r="I13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.75</v>
+      </c>
+      <c r="I14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.75</v>
+      </c>
+      <c r="E16">
+        <v>0.75</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.75</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.75</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+      <c r="G20">
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <f>SUM(((B2+C2)/2),((B3+C3)/2),((B4+C4)/2),((B5+C5)/2),((B6+C6)/2),((B7+C7)/2),((B8+C8)/2),((B9+C9)/2),((B10+C10)/2),((B11+C11)/2),((B12+C12)/2),((B13+C13)/2),((B14+C14)/2),((B15+C15)/2),((B16+C16)/2),((B17+C17)/2),((B18+C18)/2),((B19+C19)/2),((B20+C20)/2),((B21+C21)/2))/20</f>
+        <v>0.73124999999999996</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <f>SUM(((D2+E2)/2),((D3+E3)/2),((D4+E4)/2),((D5+E5)/2),((D6+E6)/2),((D7+E7)/2),((D8+E8)/2),((D9+E9)/2),((D10+E10)/2),((D11+E11)/2),((D12+E12)/2),((D13+E13)/2),((D14+E14)/2),((D15+E15)/2),((D16+E16)/2),((D17+E17)/2),((D18+E18)/2),((D19+E19)/2),((D20+E20)/2),((D21+E21)/2))/20</f>
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <f>SUM(((F2+G2)/2),((F3+G3)/2),((F4+G4)/2),((F5+G5)/2),((F6+G6)/2),((F7+G7)/2),((F8+G8)/2),((F9+G9)/2),((F10+G10)/2),((F11+G11)/2),((F12+G12)/2),((F13+G13)/2),((F14+G14)/2),((F15+G15)/2),((F16+G16)/2),((F18+G18)/2),((F19+G19)/2),((F20+G20)/2),((F17+G17)/2),((F21+G21)/2))/20</f>
+        <v>0.8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22">
+        <f>SUM(((H2+I2)/2),((H3+I3)/2),((H4+I4)/2),((H5+I5)/2),((H6+I6)/2),((H7+I7)/2),((H8+I8)/2),((H9+I9)/2),((H10+I10)/2),((H11+I11)/2),((H12+I12)/2),((H13+I13)/2),((H14+I14)/2),((H15+I15)/2),((H16+I16)/2),((H18+I18)/2),((H19+I19)/2),((H20+I20)/2),((H17+I17)/2),((H21+I21)/2))/20</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>0.8</v>
+      </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.8</v>
+      </c>
+      <c r="C27">
+        <v>0.9</v>
+      </c>
+      <c r="D27">
+        <v>0.9</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.9</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0.2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0.8</v>
+      </c>
+      <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0.2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+      <c r="H37">
+        <v>0.5</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <f>SUM(((B25+C25)/2),((B26+C26)/2),((B27+C27)/2),((B28+C28)/2),((B29+C29)/2),((B30+C30)/2),((B31+C31)/2),((B32+C32)/2),((B33+C33)/2),((B34+C34)/2),((B35+C35)/2),((B36+C36)/2),((B37+C37)/2),((B38+C38)/2),((B39+C39)/2),((B40+C40)/2),((B41+C41)/2),((B42+C42)/2),((B43+C43)/2),((B44+C44)/2))/20</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <f>SUM(((D25+E25)/2),((D26+E26)/2),((D27+E27)/2),((D28+E28)/2),((D29+E29)/2),((D30+E30)/2),((D31+E31)/2),((D32+E32)/2),((D33+E33)/2),((D34+E34)/2),((D35+E35)/2),((D36+E36)/2),((D37+E37)/2),((D38+E38)/2),((D39+E39)/2),((D40+E40)/2),((D41+E41)/2),((D42+E42)/2),((D43+E43)/2),((D44+E44)/2))/20</f>
+        <v>0.77</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <f>SUM(((F25+G25)/2),((F26+G26)/2),((F27+G27)/2),((F28+G28)/2),((F29+G29)/2),((F30+G30)/2),((F31+G31)/2),((F32+G32)/2),((F33+G33)/2),((F34+G34)/2),((F35+G35)/2),((F36+G36)/2),((F37+G37)/2),((F38+G38)/2),((F39+G39)/2),((F40+G40)/2),((F41+G41)/2),((F42+G42)/2),((F43+G43)/2),((F44+G44)/2))/20</f>
+        <v>0.6875</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45">
+        <f>SUM(((H25+I25)/2),((H26+I26)/2),((H27+I27)/2),((H28+I28)/2),((H29+I29)/2),((H30+I30)/2),((H31+I31)/2),((H32+I32)/2),((H33+I33)/2),((H34+I34)/2),((H35+I35)/2),((H36+I36)/2),((H37+I37)/2),((H38+I38)/2),((H39+I39)/2),((H40+I40)/2),((H41+I41)/2),((H42+I42)/2),((H43+I43)/2),((H44+I44)/2))/20</f>
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.7</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.4</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>0.5</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0.5</v>
+      </c>
+      <c r="I61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0.8</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0.5</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+      <c r="I65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>0.5</v>
+      </c>
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0.5</v>
+      </c>
+      <c r="G69">
+        <v>0.5</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <f>SUM(((B50+C50)/2),((B51+C51)/2),((B52+C52)/2),((B53+C53)/2),((B54+C54)/2),((B55+C55)/2),((B56+C56)/2),((B57+C57)/2),((B58+C58)/2),((B59+C59)/2),((B60+C60)/2),((B61+C61)/2),((B62+C62)/2),((B63+C63)/2),((B64+C64)/2),((B65+C65)/2),((B66+C66)/2),((B67+C67)/2),((B68+C68)/2),((B69+C69)/2))/20</f>
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70">
+        <f>SUM(((D50+E50)/2),((D51+E51)/2),((D52+E52)/2),((D53+E53)/2),((D54+E54)/2),((D55+E55)/2),((D56+E56)/2),((D57+E57)/2),((D58+E58)/2),((D59+E59)/2),((D60+E60)/2),((D61+E61)/2),((D62+E62)/2),((D63+E63)/2),((D64+E64)/2),((D65+E65)/2),((D66+E66)/2),((D67+E67)/2),((D68+E68)/2),((D69+E69)/2))/20</f>
+        <v>0.6875</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70">
+        <f>SUM(((F50+G50)/2),((F51+G51)/2),((F52+G52)/2),((F53+G53)/2),((F54+G54)/2),((F55+G55)/2),((F56+G56)/2),((F57+G57)/2),((F58+G58)/2),((F59+G59)/2),((F60+G60)/2),((F61+G61)/2),((F62+G62)/2),((F63+G63)/2),((F64+G64)/2),((F65+G65)/2),((F66+G66)/2),((F67+G67)/2),((F68+G68)/2),((F69+G69)/2))/20</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70">
+        <f>SUM(((H50+I50)/2),((H51+I51)/2),((H52+I52)/2),((H53+I53)/2),((H54+I54)/2),((H55+I55)/2),((H56+I56)/2),((H57+I57)/2),((H58+I58)/2),((H59+I59)/2),((H60+I60)/2),((H61+I61)/2),((H62+I62)/2),((H63+I63)/2),((H64+I64)/2),((H65+I65)/2),((H66+I66)/2),((H67+I67)/2),((H68+I68)/2),((H69+I69)/2))/20</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0.8</v>
+      </c>
+      <c r="G74">
+        <v>0.9</v>
+      </c>
+      <c r="H74">
+        <v>0.8</v>
+      </c>
+      <c r="I74">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0.9</v>
+      </c>
+      <c r="G75">
+        <v>0.8</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0.9</v>
+      </c>
+      <c r="G76">
+        <v>0.9</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0.9</v>
+      </c>
+      <c r="G77">
+        <v>0.9</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>0.5</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0.9</v>
+      </c>
+      <c r="G78">
+        <v>0.8</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0.9</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0.9</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0.9</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0.9</v>
+      </c>
+      <c r="G89">
+        <v>0.9</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0.9</v>
+      </c>
+      <c r="G90">
+        <v>0.9</v>
+      </c>
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+      <c r="I90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0.9</v>
+      </c>
+      <c r="G91">
+        <v>0.9</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.5</v>
+      </c>
+      <c r="G92">
+        <v>0.5</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.8</v>
+      </c>
+      <c r="F93">
+        <v>0.9</v>
+      </c>
+      <c r="G93">
+        <v>0.9</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <f>SUM(((B74+C74)/2),((B75+C75)/2),((B76+C76)/2),((B77+C77)/2),((B78+C78)/2),((B79+C79)/2),((B80+C80)/2),((B81+C81)/2),((B82+C82)/2),((B83+C83)/2),((B84+C84)/2),((B85+C85)/2),((B86+C86)/2),((B87+C87)/2),((B88+C88)/2),((B89+C89)/2),((B90+C90)/2),((B91+C91)/2),((B92+C92)/2),((B93+C93)/2))/20</f>
+        <v>0.85749999999999993</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94">
+        <f>SUM(((D74+E74)/2),((D75+E75)/2),((D76+E76)/2),((D77+E77)/2),((D78+E78)/2),((D79+E79)/2),((D80+E80)/2),((D81+E81)/2),((D82+E82)/2),((D83+E83)/2),((D84+E84)/2),((D85+E85)/2),((D86+E86)/2),((D87+E87)/2),((D88+E88)/2),((D89+E89)/2),((D90+E90)/2),((D91+E91)/2),((D92+E92)/2),((D93+E93)/2))/20</f>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="F94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94">
+        <f>SUM(((F74+G74)/2),((F75+G75)/2),((F76+G76)/2),((F77+G77)/2),((F78+G78)/2),((F79+G79)/2),((F80+G80)/2),((F81+G81)/2),((F82+G82)/2),((F83+G83)/2),((F84+G84)/2),((F85+G85)/2),((F86+G86)/2),((F87+G87)/2),((F88+G88)/2),((F90+G90)/2),((F91+G91)/2),((F92+G92)/2),((F89+G89)/2),((F93+G93)/2))/20</f>
+        <v>0.91999999999999971</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94">
+        <f>SUM(((H74+I74)/2),((H75+I75)/2),((H76+I76)/2),((H77+I77)/2),((H78+I78)/2),((H79+I79)/2),((H80+I80)/2),((H81+I81)/2),((H82+I82)/2),((H83+I83)/2),((H84+I84)/2),((H85+I85)/2),((H86+I86)/2),((H87+I87)/2),((H88+I88)/2),((H90+I90)/2),((H91+I91)/2),((H92+I92)/2),((H89+I89)/2),((H93+I93)/2))/20</f>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0.9</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0.3</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0.5</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>0.5</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.5</v>
+      </c>
+      <c r="E107">
+        <v>0.4</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0.8</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0.5</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0.5</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0.5</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0.5</v>
+      </c>
+      <c r="G115">
+        <v>0.5</v>
+      </c>
+      <c r="H115">
+        <v>0.5</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <v>0.1</v>
+      </c>
+      <c r="D116">
+        <v>0.5</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0.5</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0.5</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0.5</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <f>SUM(((B98+C98)/2),((B99+C99)/2),((B100+C100)/2),((B101+C101)/2),((B102+C102)/2),((B103+C103)/2),((B104+C104)/2),((B105+C105)/2),((B106+C106)/2),((B107+C107)/2),((B108+C108)/2),((B109+C109)/2),((B110+C110)/2),((B111+C111)/2),((B112+C112)/2),((B113+C113)/2),((B114+C114)/2),((B115+C115)/2),((B116+C116)/2),((B117+C117)/2))/20</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118">
+        <f>SUM(((D98+E98)/2),((D99+E99)/2),((D100+E100)/2),((D101+E101)/2),((D102+E102)/2),((D103+E103)/2),((D104+E104)/2),((D105+E105)/2),((D106+E106)/2),((D107+E107)/2),((D108+E108)/2),((D109+E109)/2),((D110+E110)/2),((D111+E111)/2),((D112+E112)/2),((D113+E113)/2),((D114+E114)/2),((D115+E115)/2),((D116+E116)/2),((D117+E117)/2))/20</f>
+        <v>0.875</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118">
+        <f>SUM(((F98+G98)/2),((F99+G99)/2),((F100+G100)/2),((F101+G101)/2),((F102+G102)/2),((F103+G103)/2),((F104+G104)/2),((F105+G105)/2),((F106+G106)/2),((F107+G107)/2),((F108+G108)/2),((F109+G109)/2),((F110+G110)/2),((F111+G111)/2),((F112+G112)/2),((F113+G113)/2),((F114+G114)/2),((F115+G115)/2),((F116+G116)/2),((F117+G117)/2))/20</f>
+        <v>0.85</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118">
+        <f>SUM(((H98+I98)/2),((H99+I99)/2),((H100+I100)/2),((H101+I101)/2),((H102+I102)/2),((H103+I103)/2),((H104+I104)/2),((H105+I105)/2),((H106+I106)/2),((H107+I107)/2),((H108+I108)/2),((H109+I109)/2),((H110+I110)/2),((H111+I111)/2),((H112+I112)/2),((H113+I113)/2),((H114+I114)/2),((H115+I115)/2),((H116+I116)/2),((H117+I117)/2))/20</f>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F121" t="s">
+        <v>71</v>
+      </c>
+      <c r="G121" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0.5</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0.5</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0.5</v>
+      </c>
+      <c r="I123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0.5</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0.5</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>0.5</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>0.5</v>
+      </c>
+      <c r="F133">
+        <v>0.5</v>
+      </c>
+      <c r="G133">
+        <v>0.5</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0.5</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0.5</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>0.5</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0.5</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0.5</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>0.5</v>
+      </c>
+      <c r="C140">
+        <v>0.5</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0.5</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0.5</v>
+      </c>
+      <c r="I141">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142">
+        <f>SUM(((B122+C122)/2),((B123+C123)/2),((B124+C124)/2),((B125+C125)/2),((B126+C126)/2),((B127+C127)/2),((B128+C128)/2),((B129+C129)/2),((B130+C130)/2),((B131+C131)/2),((B132+C132)/2),((B133+C133)/2),((B134+C134)/2),((B135+C135)/2),((B136+C136)/2),((B137+C137)/2),((B138+C138)/2),((B139+C139)/2),((B140+C140)/2),((B141+C141)/2))/20</f>
+        <v>0.875</v>
+      </c>
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <f>SUM(((D122+E122)/2),((D123+E123)/2),((D124+E124)/2),((D125+E125)/2),((D126+E126)/2),((D127+E127)/2),((D128+E128)/2),((D129+E129)/2),((D130+E130)/2),((D131+E131)/2),((D132+E132)/2),((D133+E133)/2),((D134+E134)/2),((D135+E135)/2),((D136+E136)/2),((D137+E137)/2),((D138+E138)/2),((D139+E139)/2),((D140+E140)/2),((D141+E141)/2))/20</f>
+        <v>0.8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142">
+        <f>SUM(((F122+G122)/2),((F123+G123)/2),((F124+G124)/2),((F125+G125)/2),((F126+G126)/2),((F127+G127)/2),((F128+G128)/2),((F129+G129)/2),((F130+G130)/2),((F131+G131)/2),((F132+G132)/2),((F133+G133)/2),((F134+G134)/2),((F135+G135)/2),((F136+G136)/2),((F137+G137)/2),((F138+G138)/2),((F139+G139)/2),((F140+G140)/2),((F141+G141)/2))/20</f>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142">
+        <f>SUM(((H122+I122)/2),((H123+I123)/2),((H124+I124)/2),((H125+I125)/2),((H126+I126)/2),((H127+I127)/2),((H128+I128)/2),((H129+I129)/2),((H130+I130)/2),((H131+I131)/2),((H132+I132)/2),((H133+I133)/2),((H134+I134)/2),((H135+I135)/2),((H136+I136)/2),((H137+I137)/2),((H138+I138)/2),((H139+I139)/2),((H140+I140)/2),((H141+I141)/2))/20</f>
+        <v>0.69500000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>